--- a/biology/Botanique/Jacques_Huber/Jacques_Huber.xlsx
+++ b/biology/Botanique/Jacques_Huber/Jacques_Huber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques (ou Jakob) Huber, né le 13 octobre 1867 à Schleitheim et mort le 18 février 1914 à Belém (Pará, Brésil), est un botaniste suisse[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques (ou Jakob) Huber, né le 13 octobre 1867 à Schleitheim et mort le 18 février 1914 à Belém (Pará, Brésil), est un botaniste suisse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie les Sciences naturelles à l'Université de Bâle, où il obtient un doctorat en 1892. Il se perfectionne à Montpellier avec Charles Flahault, puis part au Brésil en 1894 à l'invitation d'Emílio Augusto Goeldi. Après avoir exploré l'Amazonie, il travaille au Musée d'histoire naturelle et d'ethnographie de Belém avec Goeldi lui-même et d'autres scientifiques, comme le botaniste et ethnologue Adolpho Ducke. Il est directeur du Musée de 1907 jusqu'à sa mort[3],[2],[4].
-Il s'intéresse à la botanique locale, mais aussi aux possibilités d'exploiter économiquement les espèces végétales amazoniennes. Spécialiste du caoutchouc, il participe à diverses expositions nationales et internationales consacrées à cette plante, notamment à Turin en 1911, et voyage jusqu'à Ceylan et la Malaisie pour visiter leurs plantations d'hévéa[2],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie les Sciences naturelles à l'Université de Bâle, où il obtient un doctorat en 1892. Il se perfectionne à Montpellier avec Charles Flahault, puis part au Brésil en 1894 à l'invitation d'Emílio Augusto Goeldi. Après avoir exploré l'Amazonie, il travaille au Musée d'histoire naturelle et d'ethnographie de Belém avec Goeldi lui-même et d'autres scientifiques, comme le botaniste et ethnologue Adolpho Ducke. Il est directeur du Musée de 1907 jusqu'à sa mort.
+Il s'intéresse à la botanique locale, mais aussi aux possibilités d'exploiter économiquement les espèces végétales amazoniennes. Spécialiste du caoutchouc, il participe à diverses expositions nationales et internationales consacrées à cette plante, notamment à Turin en 1911, et voyage jusqu'à Ceylan et la Malaisie pour visiter leurs plantations d'hévéa,.
 </t>
         </is>
       </c>
